--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sh-kang/Projects/Works/Macro/hometax/hometax_macro_simple/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFB3121-E223-5140-B826-76F29F34C397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC579C5-6670-E74E-884F-F044F91F0A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="22340" windowWidth="29400" windowHeight="18380" xr2:uid="{ED18B7B3-451D-B745-95C7-B40CEED8F5F2}"/>
   </bookViews>
@@ -159,6 +159,57 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>숫자와 공백만 입력가능합니다.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자와 공백만 입력가능합니다.</t>
+  </si>
+  <si>
+    <t>종교단체지정기부금</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>종교단체외지정기부금</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>7행 부터 입력(노란색 해당)</t>
+  </si>
+  <si>
+    <t>20230101</t>
+  </si>
+  <si>
+    <t>20231231</t>
+  </si>
+  <si>
+    <t>홍길동</t>
+  </si>
+  <si>
+    <t>배상혁</t>
+  </si>
+  <si>
+    <t>예민정</t>
+  </si>
+  <si>
+    <t>송정은</t>
+  </si>
+  <si>
+    <t>윤은식</t>
+  </si>
+  <si>
+    <t>심도진</t>
+  </si>
+  <si>
+    <t>봉인정</t>
+  </si>
+  <si>
+    <t>봉은옥</t>
+  </si>
+  <si>
+    <t>조도현</t>
+  </si>
+  <si>
     <r>
       <t>날짜형태의 데이터를 입력합니다. 
 예)</t>
@@ -171,7 +222,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>2015-01-01</t>
+      <t>20150101</t>
     </r>
   </si>
   <si>
@@ -187,59 +238,8 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>2015-12-31</t>
+      <t>20151231</t>
     </r>
-  </si>
-  <si>
-    <t>숫자와 공백만 입력가능합니다.</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자와 공백만 입력가능합니다.</t>
-  </si>
-  <si>
-    <t>종교단체지정기부금</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>종교단체외지정기부금</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>7행 부터 입력(노란색 해당)</t>
-  </si>
-  <si>
-    <t>20230101</t>
-  </si>
-  <si>
-    <t>20231231</t>
-  </si>
-  <si>
-    <t>홍길동</t>
-  </si>
-  <si>
-    <t>배상혁</t>
-  </si>
-  <si>
-    <t>예민정</t>
-  </si>
-  <si>
-    <t>송정은</t>
-  </si>
-  <si>
-    <t>윤은식</t>
-  </si>
-  <si>
-    <t>심도진</t>
-  </si>
-  <si>
-    <t>봉인정</t>
-  </si>
-  <si>
-    <t>봉은옥</t>
-  </si>
-  <si>
-    <t>조도현</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -618,6 +618,7 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -664,11 +665,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1006,7 +1002,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1015,18 +1011,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="30">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1067,132 +1063,132 @@
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="29" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="24" t="s">
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="24" t="s">
+      <c r="S3" s="27"/>
+      <c r="T3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="25"/>
-      <c r="V3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
     </row>
     <row r="4" spans="1:26" ht="16" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="30" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="R4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="S4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="T4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" s="27" t="s">
-        <v>34</v>
+      <c r="U4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
     </row>
     <row r="6" spans="1:26" ht="145" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -1202,78 +1198,78 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="F6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="U6" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="22">
         <v>9911221333333</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15">
@@ -1309,16 +1305,16 @@
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="22">
         <v>9911222333333</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15">
@@ -1354,16 +1350,16 @@
     </row>
     <row r="9" spans="1:26" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="37">
+        <v>38</v>
+      </c>
+      <c r="B9" s="22">
         <v>9911223333333</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15">
@@ -1399,16 +1395,16 @@
     </row>
     <row r="10" spans="1:26" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="37">
+        <v>39</v>
+      </c>
+      <c r="B10" s="22">
         <v>9911223333333</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15">
@@ -1444,16 +1440,16 @@
     </row>
     <row r="11" spans="1:26" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="37">
+        <v>40</v>
+      </c>
+      <c r="B11" s="22">
         <v>9911223333333</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15">
@@ -1489,16 +1485,16 @@
     </row>
     <row r="12" spans="1:26" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="37">
+        <v>41</v>
+      </c>
+      <c r="B12" s="22">
         <v>9911223333333</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15">
@@ -1534,16 +1530,16 @@
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="37">
+        <v>42</v>
+      </c>
+      <c r="B13" s="22">
         <v>9911223333333</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15">
@@ -1579,16 +1575,16 @@
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="37">
+        <v>43</v>
+      </c>
+      <c r="B14" s="22">
         <v>9911223333333</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15">
@@ -1624,16 +1620,16 @@
     </row>
     <row r="15" spans="1:26" s="11" customFormat="1" ht="16" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="37">
+        <v>44</v>
+      </c>
+      <c r="B15" s="22">
         <v>9911223333333</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15">
@@ -1668,7 +1664,7 @@
       <c r="Z15" s="13"/>
     </row>
     <row r="18" spans="1:1" ht="18">
-      <c r="A18" s="36"/>
+      <c r="A18" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="29">
